--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>Phrases</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Conditional Phrases</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -456,7 +461,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Police AND (beat, raid, injury, rubber, stungrenade, stuntgrenade, tear, resisted, brutality, )</t>
+          <t>Police</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">beat, raid, injury, rubber, stungrenade, stuntgrenade, tear, resisted, brutality, </t>
         </is>
       </c>
     </row>
@@ -474,6 +484,7 @@
           <t>Beat, beating, mob justice, necklace, necklacing, vigilantes,</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Conditional Phrases</t>
+          <t>Conditional_Phrases</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_phrases</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>cleaned_conditional_phrases</t>
         </is>
       </c>
     </row>
@@ -461,12 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Police</t>
+          <t>['Police']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">beat, raid, injury, rubber, stungrenade, stuntgrenade, tear, resisted, brutality, </t>
+          <t>['beat', ' raid', ' injury', ' rubber', ' stungrenade', ' stuntgrenade', ' tear', ' resisted', ' brutality', ' ']</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>['police']</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>['police']</t>
         </is>
       </c>
     </row>
@@ -481,10 +501,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Beat, beating, mob justice, necklace, necklacing, vigilantes,</t>
+          <t>['Beat', ' beating', ' mob justice', ' necklace', ' necklacing', ' vigilantes', '']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>['beat', 'beat', 'mob', 'justice', 'necklace', 'necklacing', 'vigilante']</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>['beat', 'beat', 'mob', 'justice', 'necklace', 'necklacing', 'vigilante']</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['police']</t>
+          <t>['beat', 'raid', 'injury', 'rubber', 'stungrenade', 'stuntgrenade', 'tear', 'resist', 'brutality']</t>
         </is>
       </c>
     </row>
@@ -510,11 +510,7 @@
           <t>['beat', 'beat', 'mob', 'justice', 'necklace', 'necklacing', 'vigilante']</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>['beat', 'beat', 'mob', 'justice', 'necklace', 'necklacing', 'vigilante']</t>
-        </is>
-      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['beat', ' raid', ' injury', ' rubber', ' stungrenade', ' stuntgrenade', ' tear', ' resisted', ' brutality', ' ']</t>
+          <t>['beat', 'raid', 'injury', 'rubber', 'stungrenade', 'stuntgrenade', 'tear', 'resisted', 'brutality']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['beat', 'raid', 'injury', 'rubber', 'stungrenade', 'stuntgrenade', 'tear', 'resist', 'brutality']</t>
+          <t>['beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality']</t>
         </is>
       </c>
     </row>
@@ -501,13 +501,13 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['Beat', ' beating', ' mob justice', ' necklace', ' necklacing', ' vigilantes', '']</t>
+          <t>['Beat', 'beating', 'mob justice', 'necklace', 'necklacing', 'vigilantes', 'vigilante']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['beat', 'beat', 'mob', 'justice', 'necklace', 'necklacing', 'vigilante']</t>
+          <t>['beat,beating,mob', 'justice,necklace,necklacing,vigilantes,vigilante']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>

--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -471,22 +471,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['Police']</t>
+          <t>['Police', 'SAPS', 'officer']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>['beat', 'raid', 'injury', 'rubber', 'stungrenade', 'stuntgrenade', 'tear', 'resisted', 'brutality']</t>
+          <t>['beat', 'raid', 'injury', 'rubber', 'stungrenade', 'stuntgrenade', 'tear', 'resisted', 'brutality', 'resist']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['police']</t>
+          <t>['police,saps,officer']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality']</t>
+          <t>['beat,raid,injury,rubber,stungrenade,stuntgrenade,tear,resisted,brutality,resist']</t>
         </is>
       </c>
     </row>

--- a/DATA/Vocabularies/eventuality.xlsx
+++ b/DATA/Vocabularies/eventuality.xlsx
@@ -462,7 +462,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -492,7 +492,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
